--- a/xlsx/持份者_intext.xlsx
+++ b/xlsx/持份者_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
   </si>
   <si>
-    <t>股東</t>
+    <t>股东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E4%BA%BA</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%A7%E5%AE%A2</t>
   </si>
   <si>
-    <t>顧客</t>
+    <t>顾客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87%E8%80%85</t>
   </si>
   <si>
-    <t>投資者</t>
+    <t>投资者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%98%E5%B7%A5</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80</t>
   </si>
   <si>
-    <t>社區</t>
+    <t>社区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AE%BA</t>
